--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC57466-772D-D841-8BCB-5D894153D3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9706A25D-039F-6D4A-9760-ED4AF17CB468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="13240" windowWidth="15360" windowHeight="12080" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
+    <workbookView xWindow="29020" yWindow="2320" windowWidth="25500" windowHeight="12080" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>condition</t>
   </si>
@@ -58,14 +58,59 @@
     <t>Non-complicated Wounds</t>
   </si>
   <si>
-    <t xml:space="preserve">No antibiotics indicated. </t>
+    <t>Contaminated Wounds without Synovial Involvement</t>
+  </si>
+  <si>
+    <t>peroral</t>
+  </si>
+  <si>
+    <t>Trimethoprim / Sulfonamid</t>
+  </si>
+  <si>
+    <t>No, no Abscess</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>Chloramphenicol</t>
+  </si>
+  <si>
+    <t>No, older than 1 Month</t>
+  </si>
+  <si>
+    <t>Yes, Foal &lt; 1 Month</t>
+  </si>
+  <si>
+    <t>intravenous</t>
+  </si>
+  <si>
+    <t>intramuscular</t>
+  </si>
+  <si>
+    <t>Procain-Penicillin</t>
+  </si>
+  <si>
+    <t>Natrium-Penicillin</t>
+  </si>
+  <si>
+    <t>Gentamycin</t>
+  </si>
+  <si>
+    <t>Amikacin</t>
+  </si>
+  <si>
+    <t>Contaminated Wounds with Synovial Involvement</t>
+  </si>
+  <si>
+    <t>No antibiotics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +123,11 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,17 +159,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -438,15 +531,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA6CB4-1F8C-2741-8D63-E91EE9F8BC95}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -474,13 +571,154 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A2 A4:A8">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="3">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A13">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9706A25D-039F-6D4A-9760-ED4AF17CB468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B680A7-CE92-9D45-89E2-947FCE09B773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29020" yWindow="2320" windowWidth="25500" windowHeight="12080" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
+    <workbookView xWindow="4120" yWindow="2700" windowWidth="22920" windowHeight="12080" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="42">
   <si>
     <t>condition</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Natrium-Penicillin</t>
   </si>
   <si>
-    <t>Gentamycin</t>
-  </si>
-  <si>
     <t>Amikacin</t>
   </si>
   <si>
@@ -104,6 +101,66 @@
   </si>
   <si>
     <t>No antibiotics</t>
+  </si>
+  <si>
+    <t>Gentamicin</t>
+  </si>
+  <si>
+    <t>Phlegmon / Erysipelas</t>
+  </si>
+  <si>
+    <t>Oxytetracyclin</t>
+  </si>
+  <si>
+    <t>Doxycyclin</t>
+  </si>
+  <si>
+    <t>Non-complicated Hoof Abscess</t>
+  </si>
+  <si>
+    <t>Pyoderma</t>
+  </si>
+  <si>
+    <t>Hoof Abscess with Coffin Bone Involvement</t>
+  </si>
+  <si>
+    <t>Metronidazole</t>
+  </si>
+  <si>
+    <t>Sinusitis without Dental Involvement</t>
+  </si>
+  <si>
+    <t>Strangles with Abscess</t>
+  </si>
+  <si>
+    <t>Strangles with Airway Obstruction</t>
+  </si>
+  <si>
+    <t>Rhodococcosis</t>
+  </si>
+  <si>
+    <t>Azithromycin</t>
+  </si>
+  <si>
+    <t>Clarithromycin</t>
+  </si>
+  <si>
+    <t>Rifampicin</t>
+  </si>
+  <si>
+    <t>Aspiration Pneumonia</t>
+  </si>
+  <si>
+    <t>Ceftiofur</t>
+  </si>
+  <si>
+    <t>Cefquinom</t>
+  </si>
+  <si>
+    <t>first_line</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -159,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -168,11 +225,94 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -531,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA6CB4-1F8C-2741-8D63-E91EE9F8BC95}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,7 +686,7 @@
     <col min="6" max="6" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,16 +705,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -587,8 +730,11 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -602,7 +748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -613,7 +759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -624,7 +770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -635,10 +781,10 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -649,12 +795,12 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="26" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -662,10 +808,13 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -674,9 +823,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -685,12 +834,15 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -699,28 +851,714 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2 A4:A8">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="14">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="13">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A13">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A9:A12">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
       <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A13:A19">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="10">
+      <formula>LEN(TRIM(A13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="9">
+      <formula>LEN(TRIM(A20))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:A28">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(A21))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:A34">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(A29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A40">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A41))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:A43">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A42))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:A47">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A44))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:A62">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A48))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B680A7-CE92-9D45-89E2-947FCE09B773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87146AF-560E-EA40-8C5C-DD56DC2CE007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="2700" windowWidth="22920" windowHeight="12080" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
+    <workbookView xWindow="4380" yWindow="960" windowWidth="22920" windowHeight="12080" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="59">
   <si>
     <t>condition</t>
   </si>
@@ -161,6 +161,57 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Periodontal Gingivitis</t>
+  </si>
+  <si>
+    <t>Acute Diarrhea Due to Clostridium Infection</t>
+  </si>
+  <si>
+    <t>Acute Diarrhea Due to Salmonella Infection</t>
+  </si>
+  <si>
+    <t>Enrofloxacin</t>
+  </si>
+  <si>
+    <t>Marbofloxacin</t>
+  </si>
+  <si>
+    <t>Acute Diarrhea of Unknown Origin</t>
+  </si>
+  <si>
+    <t>general_constitution</t>
+  </si>
+  <si>
+    <t>Yes, bad general constitution</t>
+  </si>
+  <si>
+    <t>No, good general constitution</t>
+  </si>
+  <si>
+    <t>Peritonitis</t>
+  </si>
+  <si>
+    <t>Cystitis</t>
+  </si>
+  <si>
+    <t>Pyelonephritis</t>
+  </si>
+  <si>
+    <t>Endometritis</t>
+  </si>
+  <si>
+    <t>info_text</t>
+  </si>
+  <si>
+    <t>Placentitis</t>
+  </si>
+  <si>
+    <t>Retained Placenta (Retentio secundinarum)</t>
+  </si>
+  <si>
+    <t>intrauterine</t>
   </si>
 </sst>
 </file>
@@ -216,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -228,11 +279,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -671,891 +765,2513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA6CB4-1F8C-2741-8D63-E91EE9F8BC95}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.83203125" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E15" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F20" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E21" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E23" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E30" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E34" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E36" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D39" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E40" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F41" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E43" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E44" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E45" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E46" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E47" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E49" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E52" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E53" t="s">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E54" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E55" t="s">
-        <v>15</v>
-      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E56" t="s">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E58" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E59" t="s">
-        <v>15</v>
-      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E60" t="s">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E61" t="s">
-        <v>15</v>
-      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E62" t="s">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+    </row>
+    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I104" s="4"/>
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I107" s="4"/>
+    </row>
+    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+    </row>
+    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+    </row>
+    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+    </row>
+    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+    </row>
+    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+    </row>
+    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+    </row>
+    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+    </row>
+    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+    </row>
+    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+    </row>
+    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+    </row>
+    <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+    </row>
+    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I120" s="4"/>
+    </row>
+    <row r="121" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I122" s="4"/>
+    </row>
+    <row r="123" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I123" s="4"/>
+    </row>
+    <row r="124" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I124" s="4"/>
+    </row>
+    <row r="125" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I125" s="4"/>
+    </row>
+    <row r="126" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2 A4:A8">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="14">
+  <conditionalFormatting sqref="A2 A4:A8 A103:A115">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="24">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="23">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A12">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="21">
       <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A19">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="20">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="19">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A28">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="17">
       <formula>LEN(TRIM(A21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A34">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="16">
       <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A40">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="15">
       <formula>LEN(TRIM(A35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="14">
       <formula>LEN(TRIM(A41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A43">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="13">
       <formula>LEN(TRIM(A42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="12">
       <formula>LEN(TRIM(A44))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A62">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="11">
+      <formula>LEN(TRIM(A48))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:A65">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="10">
+      <formula>LEN(TRIM(A63))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:A67">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="9">
+      <formula>LEN(TRIM(A66))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:A71">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="8">
+      <formula>LEN(TRIM(A68))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A76">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="7">
+      <formula>LEN(TRIM(A72))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:A92">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="6">
+      <formula>LEN(TRIM(A77))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93:A97">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
+      <formula>LEN(TRIM(A93))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98:A102">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+      <formula>LEN(TRIM(A98))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116:A120">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A116))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121:A133">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A48))&gt;0</formula>
+      <formula>LEN(TRIM(A121))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87146AF-560E-EA40-8C5C-DD56DC2CE007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA9541B-55AD-9246-9F06-3883F2A377B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="960" windowWidth="22920" windowHeight="12080" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="79">
   <si>
     <t>condition</t>
   </si>
@@ -212,6 +212,66 @@
   </si>
   <si>
     <t>intrauterine</t>
+  </si>
+  <si>
+    <t>Mastitis</t>
+  </si>
+  <si>
+    <t>intramammary</t>
+  </si>
+  <si>
+    <t>Meningitis</t>
+  </si>
+  <si>
+    <t>Endocarditis</t>
+  </si>
+  <si>
+    <t>Leptospirosis</t>
+  </si>
+  <si>
+    <t>Lyme Disease</t>
+  </si>
+  <si>
+    <t>antigen_detection</t>
+  </si>
+  <si>
+    <t>No, no antigen detection</t>
+  </si>
+  <si>
+    <t>Yes, antigen detected</t>
+  </si>
+  <si>
+    <t>Anaplasmosis</t>
+  </si>
+  <si>
+    <t>Sepsis</t>
+  </si>
+  <si>
+    <t>Septic Arthritis</t>
+  </si>
+  <si>
+    <t>intrasynovial</t>
+  </si>
+  <si>
+    <t>Inpatient</t>
+  </si>
+  <si>
+    <t>Persistent Urachus</t>
+  </si>
+  <si>
+    <t>Elective Procedures: Short, Clean</t>
+  </si>
+  <si>
+    <t>Elective Procedures: Long, Clean, &gt;1 Person Present</t>
+  </si>
+  <si>
+    <t>Clean elective procedures</t>
+  </si>
+  <si>
+    <t>Contaminated Procedures</t>
+  </si>
+  <si>
+    <t>Contaminated procedures</t>
   </si>
 </sst>
 </file>
@@ -286,7 +346,103 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -765,25 +921,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA6CB4-1F8C-2741-8D63-E91EE9F8BC95}">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -797,22 +954,25 @@
         <v>48</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -821,34 +981,36 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -858,16 +1020,17 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -875,16 +1038,17 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -892,16 +1056,17 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -911,16 +1076,17 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -930,16 +1096,17 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -947,18 +1114,19 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -966,16 +1134,17 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -985,18 +1154,19 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1006,18 +1176,19 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1025,18 +1196,19 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1044,16 +1216,17 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1061,16 +1234,17 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1078,16 +1252,17 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -1095,16 +1270,17 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1114,16 +1290,17 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1133,16 +1310,17 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1151,13 +1329,14 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1165,18 +1344,19 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1184,16 +1364,17 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1201,16 +1382,17 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1220,16 +1402,17 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1239,16 +1422,17 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1258,16 +1442,17 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1277,16 +1462,17 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -1296,16 +1482,17 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1313,18 +1500,19 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1332,16 +1520,17 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -1351,18 +1540,19 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -1372,18 +1562,19 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1391,16 +1582,17 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
@@ -1408,16 +1600,17 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
@@ -1425,18 +1618,19 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -1444,16 +1638,17 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
@@ -1463,18 +1658,19 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
@@ -1484,37 +1680,39 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>30</v>
       </c>
@@ -1522,16 +1720,17 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>31</v>
       </c>
@@ -1540,13 +1739,14 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>32</v>
       </c>
@@ -1554,18 +1754,19 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
@@ -1573,16 +1774,17 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>33</v>
       </c>
@@ -1590,18 +1792,19 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>33</v>
       </c>
@@ -1609,18 +1812,19 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
@@ -1628,18 +1832,19 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>33</v>
       </c>
@@ -1647,16 +1852,17 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="4"/>
+      <c r="G47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>37</v>
       </c>
@@ -1664,18 +1870,19 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>37</v>
       </c>
@@ -1683,16 +1890,17 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
@@ -1702,18 +1910,19 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>37</v>
       </c>
@@ -1723,18 +1932,19 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>37</v>
       </c>
@@ -1742,16 +1952,17 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>37</v>
       </c>
@@ -1759,16 +1970,17 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>37</v>
       </c>
@@ -1778,16 +1990,17 @@
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>37</v>
       </c>
@@ -1797,16 +2010,17 @@
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>37</v>
       </c>
@@ -1816,16 +2030,17 @@
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>37</v>
       </c>
@@ -1833,16 +2048,17 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>37</v>
       </c>
@@ -1850,16 +2066,17 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>37</v>
       </c>
@@ -1867,16 +2084,17 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>37</v>
       </c>
@@ -1884,16 +2102,17 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>37</v>
       </c>
@@ -1901,16 +2120,17 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>37</v>
       </c>
@@ -1918,16 +2138,17 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>42</v>
       </c>
@@ -1935,18 +2156,19 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>42</v>
       </c>
@@ -1954,16 +2176,17 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>42</v>
       </c>
@@ -1971,16 +2194,17 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>43</v>
       </c>
@@ -1990,18 +2214,19 @@
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I66" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>43</v>
       </c>
@@ -2011,18 +2236,19 @@
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I67" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>44</v>
       </c>
@@ -2030,18 +2256,19 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I68" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>44</v>
       </c>
@@ -2049,18 +2276,19 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="4"/>
+      <c r="G69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>44</v>
       </c>
@@ -2068,18 +2296,19 @@
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I70" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>44</v>
       </c>
@@ -2087,18 +2316,19 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="4"/>
+      <c r="G71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I71" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>47</v>
       </c>
@@ -2108,16 +2338,17 @@
         <v>49</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>47</v>
       </c>
@@ -2127,16 +2358,17 @@
         <v>49</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="4"/>
+      <c r="G73" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>47</v>
       </c>
@@ -2148,16 +2380,17 @@
         <v>49</v>
       </c>
       <c r="E74" s="4"/>
-      <c r="F74" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>47</v>
       </c>
@@ -2169,16 +2402,17 @@
         <v>49</v>
       </c>
       <c r="E75" s="4"/>
-      <c r="F75" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>47</v>
       </c>
@@ -2189,13 +2423,14 @@
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="4"/>
+      <c r="H76" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>51</v>
       </c>
@@ -2203,18 +2438,19 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I77" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>51</v>
       </c>
@@ -2222,56 +2458,63 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I78" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I79" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B80" s="4"/>
+      <c r="B80" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I80" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>51</v>
       </c>
@@ -2279,16 +2522,17 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>51</v>
       </c>
@@ -2296,16 +2540,17 @@
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="4"/>
+      <c r="G82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>51</v>
       </c>
@@ -2313,16 +2558,17 @@
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>51</v>
       </c>
@@ -2330,16 +2576,17 @@
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>51</v>
       </c>
@@ -2349,16 +2596,17 @@
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="4"/>
+      <c r="G85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>51</v>
       </c>
@@ -2368,16 +2616,17 @@
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F86" s="4"/>
       <c r="G86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>51</v>
       </c>
@@ -2385,16 +2634,17 @@
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F87" s="4"/>
       <c r="G87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>51</v>
       </c>
@@ -2402,16 +2652,17 @@
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="4"/>
+      <c r="G88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="H88" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-    </row>
-    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>51</v>
       </c>
@@ -2419,16 +2670,17 @@
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>51</v>
       </c>
@@ -2436,16 +2688,17 @@
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="4"/>
+      <c r="G90" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>51</v>
       </c>
@@ -2453,16 +2706,17 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>51</v>
       </c>
@@ -2470,16 +2724,17 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="4"/>
+      <c r="G92" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="H92" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>52</v>
       </c>
@@ -2487,18 +2742,19 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="4"/>
+      <c r="G93" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I93" s="4"/>
-    </row>
-    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I93" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>52</v>
       </c>
@@ -2506,16 +2762,17 @@
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F94" s="4"/>
       <c r="G94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>52</v>
       </c>
@@ -2523,50 +2780,57 @@
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="4"/>
+      <c r="G95" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="H95" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B96" s="4"/>
+      <c r="B96" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F96" s="4"/>
       <c r="G96" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-    </row>
-    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B97" s="4"/>
+      <c r="B97" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F97" s="4"/>
       <c r="G97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-    </row>
-    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J97" s="4"/>
+    </row>
+    <row r="98" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>53</v>
       </c>
@@ -2574,18 +2838,19 @@
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="4"/>
+      <c r="G98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="H98" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I98" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J98" s="4"/>
+    </row>
+    <row r="99" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>53</v>
       </c>
@@ -2593,16 +2858,17 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>53</v>
       </c>
@@ -2610,50 +2876,57 @@
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="4"/>
+      <c r="G100" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="H100" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-    </row>
-    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B101" s="4"/>
+      <c r="B101" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F101" s="4"/>
       <c r="G101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-    </row>
-    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B102" s="4"/>
+      <c r="B102" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F102" s="4"/>
       <c r="G102" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H102" s="4"/>
       <c r="I102" s="4"/>
-    </row>
-    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>54</v>
       </c>
@@ -2662,15 +2935,16 @@
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="4" t="s">
+      <c r="G103" s="4"/>
+      <c r="H103" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I103" s="4"/>
+      <c r="J103" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>54</v>
       </c>
@@ -2678,18 +2952,19 @@
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F104" s="4"/>
       <c r="G104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H104" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I104" s="4"/>
-    </row>
-    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I104" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>54</v>
       </c>
@@ -2697,18 +2972,19 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="4"/>
+      <c r="G105" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="H105" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H105" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I105" s="4"/>
-    </row>
-    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I105" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>54</v>
       </c>
@@ -2716,18 +2992,19 @@
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F106" s="4"/>
       <c r="G106" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H106" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I106" s="4"/>
-    </row>
-    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I106" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>54</v>
       </c>
@@ -2735,18 +3012,19 @@
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="4"/>
+      <c r="G107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="H107" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H107" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I107" s="4"/>
-    </row>
-    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I107" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>54</v>
       </c>
@@ -2754,16 +3032,17 @@
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="4"/>
+      <c r="G108" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="H108" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H108" s="4"/>
       <c r="I108" s="4"/>
-    </row>
-    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>54</v>
       </c>
@@ -2771,16 +3050,17 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="4"/>
+      <c r="G109" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="H109" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H109" s="4"/>
       <c r="I109" s="4"/>
-    </row>
-    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>54</v>
       </c>
@@ -2788,16 +3068,17 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F110" s="4"/>
       <c r="G110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H110" s="4"/>
       <c r="I110" s="4"/>
-    </row>
-    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>54</v>
       </c>
@@ -2805,16 +3086,17 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="4"/>
+      <c r="G111" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="H111" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H111" s="4"/>
       <c r="I111" s="4"/>
-    </row>
-    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>54</v>
       </c>
@@ -2822,16 +3104,17 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F112" s="4"/>
       <c r="G112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H112" s="4"/>
       <c r="I112" s="4"/>
-    </row>
-    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J112" s="4"/>
+    </row>
+    <row r="113" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>54</v>
       </c>
@@ -2839,16 +3122,17 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="4"/>
+      <c r="G113" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="H113" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H113" s="4"/>
       <c r="I113" s="4"/>
-    </row>
-    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>54</v>
       </c>
@@ -2856,16 +3140,17 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="4"/>
+      <c r="G114" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="H114" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H114" s="4"/>
       <c r="I114" s="4"/>
-    </row>
-    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>54</v>
       </c>
@@ -2873,16 +3158,17 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="4"/>
+      <c r="G115" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="H115" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H115" s="4"/>
       <c r="I115" s="4"/>
-    </row>
-    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>56</v>
       </c>
@@ -2891,15 +3177,16 @@
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="4" t="s">
+      <c r="G116" s="4"/>
+      <c r="H116" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I116" s="4"/>
+      <c r="J116" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>56</v>
       </c>
@@ -2907,16 +3194,17 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F117" s="4"/>
       <c r="G117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H117" s="4"/>
       <c r="I117" s="4"/>
-    </row>
-    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>56</v>
       </c>
@@ -2924,16 +3212,17 @@
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="4"/>
+      <c r="G118" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G118" s="4" t="s">
+      <c r="H118" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H118" s="4"/>
       <c r="I118" s="4"/>
-    </row>
-    <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>56</v>
       </c>
@@ -2941,16 +3230,17 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F119" s="4"/>
       <c r="G119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H119" s="4"/>
       <c r="I119" s="4"/>
-    </row>
-    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>56</v>
       </c>
@@ -2958,18 +3248,19 @@
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="4"/>
+      <c r="G120" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="H120" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H120" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I120" s="4"/>
-    </row>
-    <row r="121" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I120" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J120" s="4"/>
+    </row>
+    <row r="121" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>57</v>
       </c>
@@ -2978,15 +3269,16 @@
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="4" t="s">
+      <c r="G121" s="4"/>
+      <c r="H121" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I121" s="4"/>
+      <c r="J121" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>57</v>
       </c>
@@ -2994,18 +3286,19 @@
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F122" s="4"/>
       <c r="G122" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H122" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I122" s="4"/>
-    </row>
-    <row r="123" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I122" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J122" s="4"/>
+    </row>
+    <row r="123" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>57</v>
       </c>
@@ -3013,18 +3306,19 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="4"/>
+      <c r="G123" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G123" s="4" t="s">
+      <c r="H123" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H123" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I123" s="4"/>
-    </row>
-    <row r="124" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I123" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J123" s="4"/>
+    </row>
+    <row r="124" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>57</v>
       </c>
@@ -3032,18 +3326,19 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F124" s="4"/>
       <c r="G124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H124" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I124" s="4"/>
-    </row>
-    <row r="125" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I124" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>57</v>
       </c>
@@ -3051,227 +3346,1362 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="4"/>
+      <c r="G125" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G125" s="4" t="s">
+      <c r="H125" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H125" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I125" s="4"/>
-    </row>
-    <row r="126" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="I125" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F126" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="G126" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="G127" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G127" s="4" t="s">
+      <c r="H127" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="G128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="G129" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G129" s="4" t="s">
+      <c r="H129" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="G130" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="H130" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H130" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="I130" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="G131" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G131" s="4" t="s">
+      <c r="H131" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H131" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="I131" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="G132" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G132" s="4" t="s">
+      <c r="H132" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="G133" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G133" s="4" t="s">
+      <c r="H133" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F134" s="4"/>
+    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G134" s="4"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
+      <c r="H134" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I151" s="4"/>
+    </row>
+    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" t="s">
+        <v>66</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" t="s">
+        <v>67</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I180" s="4"/>
+      <c r="J180" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J191" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I199" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I202" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J206" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A207" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I207" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I208" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H209" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I209" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J210" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I211" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I212" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2 A4:A8 A103:A115">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="36">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="35">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A12">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="33">
       <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A19">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="32">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="31">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A28">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="29">
       <formula>LEN(TRIM(A21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A34">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="28">
       <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A40">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="27">
       <formula>LEN(TRIM(A35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="26">
       <formula>LEN(TRIM(A41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A43">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="25">
       <formula>LEN(TRIM(A42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="24">
       <formula>LEN(TRIM(A44))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A62">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="23">
       <formula>LEN(TRIM(A48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A65">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="22">
       <formula>LEN(TRIM(A63))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:A67">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="21">
       <formula>LEN(TRIM(A66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:A71">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="20">
       <formula>LEN(TRIM(A68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A76">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="19">
       <formula>LEN(TRIM(A72))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:A92">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="18">
       <formula>LEN(TRIM(A77))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A97">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="17">
       <formula>LEN(TRIM(A93))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:A102">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="16">
       <formula>LEN(TRIM(A98))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:A120">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="14">
       <formula>LEN(TRIM(A116))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:A133">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="13">
+      <formula>LEN(TRIM(A121))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134:A144">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
+      <formula>LEN(TRIM(A134))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A145:A156">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="11">
+      <formula>LEN(TRIM(A145))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:A170">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="10">
+      <formula>LEN(TRIM(A157))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A171:A176">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="9">
+      <formula>LEN(TRIM(A171))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:A178">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(A177))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(A179))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:A190">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(A180))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191:A198">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A191))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199:A204">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A199))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A205))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206:A209">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A206))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A210:A213">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A121))&gt;0</formula>
+      <formula>LEN(TRIM(A210))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA9541B-55AD-9246-9F06-3883F2A377B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367BFF0E-3884-3842-AF84-2E82B2EFFA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="960" windowWidth="22920" windowHeight="12080" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="74">
   <si>
     <t>condition</t>
   </si>
@@ -67,21 +67,12 @@
     <t>Trimethoprim / Sulfonamid</t>
   </si>
   <si>
-    <t>No, no Abscess</t>
-  </si>
-  <si>
     <t>Pet</t>
   </si>
   <si>
     <t>Chloramphenicol</t>
   </si>
   <si>
-    <t>No, older than 1 Month</t>
-  </si>
-  <si>
-    <t>Yes, Foal &lt; 1 Month</t>
-  </si>
-  <si>
     <t>intravenous</t>
   </si>
   <si>
@@ -184,12 +175,6 @@
     <t>general_constitution</t>
   </si>
   <si>
-    <t>Yes, bad general constitution</t>
-  </si>
-  <si>
-    <t>No, good general constitution</t>
-  </si>
-  <si>
     <t>Peritonitis</t>
   </si>
   <si>
@@ -235,12 +220,6 @@
     <t>antigen_detection</t>
   </si>
   <si>
-    <t>No, no antigen detection</t>
-  </si>
-  <si>
-    <t>Yes, antigen detected</t>
-  </si>
-  <si>
     <t>Anaplasmosis</t>
   </si>
   <si>
@@ -272,6 +251,12 @@
   </si>
   <si>
     <t>Contaminated procedures</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -924,23 +909,23 @@
   <dimension ref="A1:J213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -951,10 +936,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -966,10 +951,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -983,12 +968,12 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -997,7 +982,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>8</v>
@@ -1006,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -1016,7 +1001,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1025,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1040,10 +1025,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1058,10 +1043,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1071,17 +1056,17 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1091,24 +1076,24 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1116,19 +1101,19 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1136,61 +1121,61 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1204,13 +1189,13 @@
         <v>9</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1218,17 +1203,17 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1239,14 +1224,14 @@
         <v>8</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1254,17 +1239,17 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1272,57 +1257,57 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1331,14 +1316,14 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1349,16 +1334,16 @@
         <v>8</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1366,17 +1351,17 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1384,61 +1369,61 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1447,18 +1432,18 @@
         <v>8</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1467,34 +1452,34 @@
         <v>8</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1502,19 +1487,19 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I29" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1522,61 +1507,61 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1584,17 +1569,17 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1605,14 +1590,14 @@
         <v>8</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1620,19 +1605,19 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I35" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1640,68 +1625,68 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>8</v>
@@ -1714,7 +1699,7 @@
     </row>
     <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1725,14 +1710,14 @@
         <v>8</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1741,14 +1726,14 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1756,19 +1741,19 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I42" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1776,17 +1761,17 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1797,16 +1782,16 @@
         <v>8</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1817,16 +1802,16 @@
         <v>8</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1837,16 +1822,16 @@
         <v>8</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1857,14 +1842,14 @@
         <v>8</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1872,19 +1857,19 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I48" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1892,61 +1877,61 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1957,14 +1942,14 @@
         <v>8</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1975,18 +1960,18 @@
         <v>8</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -1995,38 +1980,38 @@
         <v>8</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2035,14 +2020,14 @@
         <v>8</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2050,17 +2035,17 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2071,14 +2056,14 @@
         <v>8</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2086,17 +2071,17 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2104,17 +2089,17 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2122,17 +2107,17 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2140,17 +2125,17 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2164,13 +2149,13 @@
         <v>9</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2178,17 +2163,17 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2199,18 +2184,18 @@
         <v>8</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -2219,38 +2204,38 @@
         <v>8</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2258,19 +2243,19 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2281,16 +2266,16 @@
         <v>8</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2298,19 +2283,19 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2321,118 +2306,118 @@
         <v>8</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2440,19 +2425,19 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I77" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2460,63 +2445,63 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2524,17 +2509,17 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2545,14 +2530,14 @@
         <v>8</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2560,17 +2545,17 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2581,18 +2566,18 @@
         <v>8</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -2601,34 +2586,34 @@
         <v>8</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2636,17 +2621,17 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2654,17 +2639,17 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2672,17 +2657,17 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2690,17 +2675,17 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2708,17 +2693,17 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2729,14 +2714,14 @@
         <v>8</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2750,13 +2735,13 @@
         <v>9</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2764,17 +2749,17 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2782,57 +2767,57 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2846,13 +2831,13 @@
         <v>9</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2860,17 +2845,17 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2878,57 +2863,57 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2937,16 +2922,16 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2954,19 +2939,19 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H104" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I104" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2974,19 +2959,19 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2994,19 +2979,19 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -3020,13 +3005,13 @@
         <v>9</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3034,17 +3019,17 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3052,17 +3037,17 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3070,17 +3055,17 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
     </row>
     <row r="111" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3088,17 +3073,17 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
     <row r="112" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3106,17 +3091,17 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
     <row r="113" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3124,17 +3109,17 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
     <row r="114" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -3142,17 +3127,17 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
     <row r="115" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3160,17 +3145,17 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
     <row r="116" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -3179,16 +3164,16 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3196,17 +3181,17 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
     <row r="118" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -3214,17 +3199,17 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
     <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -3232,17 +3217,17 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -3256,13 +3241,13 @@
         <v>9</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3271,16 +3256,16 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I121" s="4"/>
       <c r="J121" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3288,19 +3273,19 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I122" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J122" s="4"/>
     </row>
     <row r="123" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3308,19 +3293,19 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J123" s="4"/>
     </row>
     <row r="124" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3328,19 +3313,19 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3354,158 +3339,158 @@
         <v>9</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J125" s="4"/>
     </row>
     <row r="126" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I131" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H135" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I135" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>8</v>
@@ -3514,152 +3499,152 @@
         <v>9</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I145" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -3668,167 +3653,167 @@
         <v>8</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I151" s="4"/>
     </row>
     <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H157" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I157" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -3837,497 +3822,497 @@
         <v>8</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G173" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E177" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E178" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I180" s="4"/>
       <c r="J180" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G181" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H181" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H181" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I181" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J191" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G192" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H192" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I192" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>8</v>
@@ -4336,206 +4321,206 @@
         <v>9</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G200" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H200" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I200" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="G203" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J206" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G207" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H207" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H207" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I207" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J210" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G211" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H211" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H211" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I211" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bboen\Documents\Repositories\CDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367BFF0E-3884-3842-AF84-2E82B2EFFA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DBA062-A282-4576-8FA6-B69D2B0EE1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="960" windowWidth="22920" windowHeight="12080" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
+    <workbookView xWindow="28690" yWindow="2030" windowWidth="38620" windowHeight="21100" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>peroral</t>
   </si>
   <si>
-    <t>Trimethoprim / Sulfonamid</t>
-  </si>
-  <si>
     <t>Pet</t>
   </si>
   <si>
@@ -79,12 +76,6 @@
     <t>intramuscular</t>
   </si>
   <si>
-    <t>Procain-Penicillin</t>
-  </si>
-  <si>
-    <t>Natrium-Penicillin</t>
-  </si>
-  <si>
     <t>Amikacin</t>
   </si>
   <si>
@@ -100,12 +91,6 @@
     <t>Phlegmon / Erysipelas</t>
   </si>
   <si>
-    <t>Oxytetracyclin</t>
-  </si>
-  <si>
-    <t>Doxycyclin</t>
-  </si>
-  <si>
     <t>Non-complicated Hoof Abscess</t>
   </si>
   <si>
@@ -257,6 +242,21 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Doxycycline</t>
+  </si>
+  <si>
+    <t>Oxytetracycline</t>
+  </si>
+  <si>
+    <t>Benzylpenicillin</t>
+  </si>
+  <si>
+    <t>Procaine Penicillin</t>
+  </si>
+  <si>
+    <t>Trimethoprim / Sulfadimidine</t>
   </si>
 </sst>
 </file>
@@ -329,265 +329,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -610,9 +354,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -650,7 +394,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -756,7 +500,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -898,7 +642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -909,23 +653,23 @@
   <dimension ref="A1:J213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.8125" customWidth="1"/>
+    <col min="2" max="2" width="8.6875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.3125" customWidth="1"/>
+    <col min="6" max="6" width="11.1875" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -936,10 +680,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -951,13 +695,13 @@
         <v>4</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -968,12 +712,12 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -982,26 +726,26 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1010,12 +754,12 @@
         <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1025,15 +769,15 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1043,57 +787,57 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1101,19 +845,19 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1121,61 +865,61 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1186,16 +930,16 @@
         <v>8</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1203,17 +947,17 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1224,14 +968,14 @@
         <v>8</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1239,17 +983,17 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1257,57 +1001,57 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1316,14 +1060,14 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1334,16 +1078,16 @@
         <v>8</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1351,17 +1095,17 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1369,61 +1113,61 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1432,18 +1176,18 @@
         <v>8</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1452,34 +1196,34 @@
         <v>8</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1487,19 +1231,19 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1507,61 +1251,61 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="B32" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1569,17 +1313,17 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1590,14 +1334,14 @@
         <v>8</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1605,19 +1349,19 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1625,81 +1369,81 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1710,14 +1454,14 @@
         <v>8</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1726,14 +1470,14 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1741,19 +1485,19 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1761,17 +1505,17 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1782,16 +1526,16 @@
         <v>8</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1802,16 +1546,16 @@
         <v>8</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1822,16 +1566,16 @@
         <v>8</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1842,14 +1586,14 @@
         <v>8</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1857,19 +1601,19 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1877,61 +1621,61 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1942,14 +1686,14 @@
         <v>8</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1960,18 +1704,18 @@
         <v>8</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -1980,38 +1724,38 @@
         <v>8</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2020,14 +1764,14 @@
         <v>8</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2035,17 +1779,17 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2056,14 +1800,14 @@
         <v>8</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2071,17 +1815,17 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2089,17 +1833,17 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2107,17 +1851,17 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A62" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2125,17 +1869,17 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2146,16 +1890,16 @@
         <v>8</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2163,17 +1907,17 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2184,18 +1928,18 @@
         <v>8</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -2204,38 +1948,38 @@
         <v>8</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2243,19 +1987,19 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2266,16 +2010,16 @@
         <v>8</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2283,19 +2027,19 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2306,118 +2050,118 @@
         <v>8</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2425,19 +2169,19 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2445,63 +2189,63 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A79" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A80" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A81" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2509,17 +2253,17 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2530,14 +2274,14 @@
         <v>8</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A83" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2545,17 +2289,17 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A84" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2566,18 +2310,18 @@
         <v>8</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A85" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -2586,34 +2330,34 @@
         <v>8</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A86" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A87" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2621,17 +2365,17 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A88" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2639,17 +2383,17 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A89" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2657,17 +2401,17 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A90" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2675,17 +2419,17 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A91" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2693,17 +2437,17 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A92" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2714,14 +2458,14 @@
         <v>8</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A93" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2732,16 +2476,16 @@
         <v>8</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A94" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2749,17 +2493,17 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A95" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2767,57 +2511,57 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A96" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A97" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A98" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2828,16 +2572,16 @@
         <v>8</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A99" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2845,17 +2589,17 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A100" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2863,57 +2607,57 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A101" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A102" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A103" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2922,16 +2666,16 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A104" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2939,19 +2683,19 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A105" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2959,19 +2703,19 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A106" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2979,19 +2723,19 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A107" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -3002,16 +2746,16 @@
         <v>8</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A108" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3019,17 +2763,17 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A109" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3037,17 +2781,17 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A110" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3055,17 +2799,17 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A111" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3073,17 +2817,17 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A112" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3091,17 +2835,17 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A113" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3109,17 +2853,17 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A114" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -3127,17 +2871,17 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A115" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3145,17 +2889,17 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A116" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -3164,16 +2908,16 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A117" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3181,17 +2925,17 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A118" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -3199,17 +2943,17 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A119" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -3217,17 +2961,17 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A120" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -3238,16 +2982,16 @@
         <v>8</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A121" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3256,16 +3000,16 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I121" s="4"/>
       <c r="J121" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A122" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3273,19 +3017,19 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A123" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3293,19 +3037,19 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A124" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3313,19 +3057,19 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A125" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3336,315 +3080,315 @@
         <v>8</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A126" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A127" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G127" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H126" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H127" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A128" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A129" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G129" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H128" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H129" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A130" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I130" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A131" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I131" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A132" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A133" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A134" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A135" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A136" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G136" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H135" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G136" s="4" t="s">
+      <c r="H136" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A137" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A138" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A139" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A140" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A141" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A142" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A143" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A144" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A145" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A146" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A147" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A148" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H136" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H138" s="4" t="s">
+      <c r="I148" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A149" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I139" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I146" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I147" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I148" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -3653,167 +3397,167 @@
         <v>8</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A150" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A151" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I151" s="4"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A152" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G152" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H150" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G151" s="4" t="s">
+      <c r="H152" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A153" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A154" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G154" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H151" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I151" s="4"/>
-    </row>
-    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G152" s="4" t="s">
+      <c r="H154" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A155" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A156" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A157" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A158" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A159" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A160" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H152" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H154" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H155" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H156" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I158" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I159" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I160" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A161" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -3822,871 +3566,711 @@
         <v>8</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A162" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A163" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A164" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A165" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A166" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G166" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H162" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I162" s="4" t="s">
+      <c r="H166" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A167" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A168" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A169" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A170" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A171" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A172" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A173" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A174" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A175" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A176" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A177" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E177" t="s">
+        <v>67</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A178" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E178" t="s">
+        <v>68</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A179" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A180" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H164" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H170" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I171" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I172" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H175" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H176" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E177" t="s">
-        <v>72</v>
-      </c>
-      <c r="H177" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E178" t="s">
-        <v>73</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H179" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I180" s="4"/>
       <c r="J180" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A181" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A182" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G182" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H181" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I181" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G182" s="4" t="s">
+      <c r="H182" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A183" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A184" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H182" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I182" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G183" s="4" t="s">
+      <c r="I184" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A185" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A186" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A187" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A188" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G188" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H183" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I183" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G184" s="4" t="s">
+      <c r="H188" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A189" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A190" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G190" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H184" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I184" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H185" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I185" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H186" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I186" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H188" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H189" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G190" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H190" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A191" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J191" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A192" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A193" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A194" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A195" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A196" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A197" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A198" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A199" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I199" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A200" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A201" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A202" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I202" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A203" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A204" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A205" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A206" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J206" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A207" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I207" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A208" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I208" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A209" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I209" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A210" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J191" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G192" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H192" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I192" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G193" s="4" t="s">
+      <c r="H210" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J210" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A211" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I211" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A212" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I212" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A213" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H193" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I193" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G194" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H194" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I194" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G195" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H195" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I195" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G196" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H196" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G197" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H197" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G198" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H198" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A199" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G199" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H199" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I199" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H200" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I200" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H201" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I201" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G202" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H202" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I202" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I203" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H204" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A205" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H205" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A206" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H206" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J206" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G207" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I207" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A208" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G208" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H208" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I208" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A209" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G209" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H209" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I209" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H210" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J210" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G211" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H211" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I211" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G212" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H212" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I212" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G213" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H213" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I213" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2 A4:A8 A103:A115">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="36">
+  <conditionalFormatting sqref="A2:A213">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="35">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A12">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="33">
-      <formula>LEN(TRIM(A9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A19">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="32">
-      <formula>LEN(TRIM(A13))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="31">
-      <formula>LEN(TRIM(A20))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:A28">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="29">
-      <formula>LEN(TRIM(A21))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A34">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="28">
-      <formula>LEN(TRIM(A29))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A40">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="27">
-      <formula>LEN(TRIM(A35))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="26">
-      <formula>LEN(TRIM(A41))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A43">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="25">
-      <formula>LEN(TRIM(A42))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:A47">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="24">
-      <formula>LEN(TRIM(A44))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A62">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="23">
-      <formula>LEN(TRIM(A48))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A65">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="22">
-      <formula>LEN(TRIM(A63))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A67">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="21">
-      <formula>LEN(TRIM(A66))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:A71">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="20">
-      <formula>LEN(TRIM(A68))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A76">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="19">
-      <formula>LEN(TRIM(A72))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A92">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="18">
-      <formula>LEN(TRIM(A77))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A97">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="17">
-      <formula>LEN(TRIM(A93))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A98:A102">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="16">
-      <formula>LEN(TRIM(A98))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A116:A120">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="14">
-      <formula>LEN(TRIM(A116))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A121:A133">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="13">
-      <formula>LEN(TRIM(A121))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134:A144">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
-      <formula>LEN(TRIM(A134))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A145:A156">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="11">
-      <formula>LEN(TRIM(A145))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:A170">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="10">
-      <formula>LEN(TRIM(A157))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A171:A176">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="9">
-      <formula>LEN(TRIM(A171))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:A178">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
-      <formula>LEN(TRIM(A177))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(A179))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180:A190">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(A180))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:A198">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A191))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199:A204">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A199))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A205))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A206:A209">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A206))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A210:A213">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A210))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bboen\Documents\Repositories\CDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DBA062-A282-4576-8FA6-B69D2B0EE1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0218C15-0716-4896-BB91-8E2EDB714344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="2030" windowWidth="38620" windowHeight="21100" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
+    <workbookView xWindow="49790" yWindow="3280" windowWidth="15080" windowHeight="19510" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>Non-complicated Wounds</t>
   </si>
   <si>
-    <t>Contaminated Wounds without Synovial Involvement</t>
-  </si>
-  <si>
     <t>peroral</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Amikacin</t>
   </si>
   <si>
-    <t>Contaminated Wounds with Synovial Involvement</t>
-  </si>
-  <si>
     <t>No antibiotics</t>
   </si>
   <si>
@@ -257,6 +251,12 @@
   </si>
   <si>
     <t>Trimethoprim / Sulfadimidine</t>
+  </si>
+  <si>
+    <t>Contaminated Limb Wounds without Synovial Involvement</t>
+  </si>
+  <si>
+    <t>Contaminated Limb Wounds with Synovial Involvement</t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -680,10 +680,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
@@ -712,56 +712,56 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -769,17 +769,17 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -787,57 +787,57 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -845,19 +845,19 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -865,61 +865,61 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -927,19 +927,19 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -947,17 +947,17 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -965,17 +965,17 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -983,17 +983,17 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1001,57 +1001,57 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1060,14 +1060,14 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1075,19 +1075,19 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1095,17 +1095,17 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1113,117 +1113,117 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1231,19 +1231,19 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1251,61 +1251,61 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1313,17 +1313,17 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1331,17 +1331,17 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1349,19 +1349,19 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1369,81 +1369,81 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1451,17 +1451,17 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1470,14 +1470,14 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1485,19 +1485,19 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1505,17 +1505,17 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1523,19 +1523,19 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1543,19 +1543,19 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1563,19 +1563,19 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1583,17 +1583,17 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1601,19 +1601,19 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1621,61 +1621,61 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1683,17 +1683,17 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1701,77 +1701,77 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1779,17 +1779,17 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1797,17 +1797,17 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1815,17 +1815,17 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1833,17 +1833,17 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1851,17 +1851,17 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A62" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1869,17 +1869,17 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1887,19 +1887,19 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1907,17 +1907,17 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1925,61 +1925,61 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1987,19 +1987,19 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2007,19 +2007,19 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2027,19 +2027,19 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2047,121 +2047,121 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2169,19 +2169,19 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2189,63 +2189,63 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A79" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A80" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A81" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2253,17 +2253,17 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2271,17 +2271,17 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A83" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2289,17 +2289,17 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A84" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2307,57 +2307,57 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A85" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A86" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A87" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2365,17 +2365,17 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A88" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2383,17 +2383,17 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A89" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2401,17 +2401,17 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A90" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2419,17 +2419,17 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A91" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2437,17 +2437,17 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A92" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2455,17 +2455,17 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A93" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2473,19 +2473,19 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A94" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2493,17 +2493,17 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A95" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2511,57 +2511,57 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A96" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A97" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A98" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2569,19 +2569,19 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A99" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2589,17 +2589,17 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A100" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2607,57 +2607,57 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A101" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A102" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A103" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2666,16 +2666,16 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A104" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2683,19 +2683,19 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A105" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2703,19 +2703,19 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A106" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2723,19 +2723,19 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A107" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2743,19 +2743,19 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A108" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2763,17 +2763,17 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A109" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2781,17 +2781,17 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A110" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2799,17 +2799,17 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A111" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2817,17 +2817,17 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A112" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2835,17 +2835,17 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A113" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2853,17 +2853,17 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A114" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2871,17 +2871,17 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A115" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2889,17 +2889,17 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A116" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2908,16 +2908,16 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A117" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2925,17 +2925,17 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A118" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2943,17 +2943,17 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A119" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2961,17 +2961,17 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
     <row r="120" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A120" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2979,19 +2979,19 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J120" s="4"/>
     </row>
     <row r="121" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A121" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3000,16 +3000,16 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I121" s="4"/>
       <c r="J121" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A122" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3017,19 +3017,19 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J122" s="4"/>
     </row>
     <row r="123" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A123" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3037,19 +3037,19 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J123" s="4"/>
     </row>
     <row r="124" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A124" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3057,19 +3057,19 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J124" s="4"/>
     </row>
     <row r="125" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A125" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3077,1194 +3077,1194 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J125" s="4"/>
     </row>
     <row r="126" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A126" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A127" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A128" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A129" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A130" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A131" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I131" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A132" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A133" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A134" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A135" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A136" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A137" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A138" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A139" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A140" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A141" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A142" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A143" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A144" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A145" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A146" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A147" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A148" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A149" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A150" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A151" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I151" s="4"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A152" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A153" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A154" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A155" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A156" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A157" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A158" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A159" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A160" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A161" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A162" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A163" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A164" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A165" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A166" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A167" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A168" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A169" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A170" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A171" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A172" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A173" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A174" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A175" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A176" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A177" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E177" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A178" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E178" t="s">
+        <v>66</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H178" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G178" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="I178" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A179" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A180" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I180" s="4"/>
       <c r="J180" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A181" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A182" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A183" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A184" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A185" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A186" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A187" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A188" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A189" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A190" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A191" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J191" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A192" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A193" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A194" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A195" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A196" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A197" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A198" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A199" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A200" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A201" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A202" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A203" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A204" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A205" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A206" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J206" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A207" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A208" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A209" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A210" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J210" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A211" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A212" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B212" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B212" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="G212" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A213" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bboen\Documents\Repositories\CDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0218C15-0716-4896-BB91-8E2EDB714344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D317FE-50A8-4D2D-ACF2-E0DDECC39EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49790" yWindow="3280" windowWidth="15080" windowHeight="19510" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
+    <workbookView xWindow="47690" yWindow="2810" windowWidth="19300" windowHeight="20150" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="74">
   <si>
     <t>condition</t>
   </si>
@@ -650,11 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA6CB4-1F8C-2741-8D63-E91EE9F8BC95}">
-  <dimension ref="A1:J213"/>
+  <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -799,13 +799,13 @@
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
@@ -825,19 +825,23 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -848,16 +852,14 @@
         <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -865,10 +867,10 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -877,31 +879,25 @@
       <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -910,16 +906,16 @@
         <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -927,73 +923,87 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G15" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1001,73 +1011,73 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H20" s="4" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1080,14 +1090,12 @@
       <c r="H21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1103,9 +1111,9 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1121,9 +1129,9 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>65</v>
@@ -1141,9 +1149,9 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>66</v>
@@ -1161,22 +1169,18 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1186,9 +1190,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1196,9 +1198,11 @@
         <v>7</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
@@ -1206,9 +1210,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1216,14 +1218,14 @@
         <v>10</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1231,40 +1233,40 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1274,74 +1276,74 @@
         <v>10</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1361,7 +1363,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1379,7 +1381,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>65</v>
@@ -1401,7 +1403,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -1421,29 +1423,27 @@
       </c>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1461,23 +1461,27 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1485,77 +1489,81 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I43" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1566,34 +1574,30 @@
         <v>7</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1613,7 +1617,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1631,20 +1635,18 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>31</v>
@@ -1653,20 +1655,18 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>31</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1686,14 +1686,16 @@
         <v>7</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1704,7 +1706,7 @@
         <v>7</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -1714,19 +1716,19 @@
         <v>27</v>
       </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.5">
@@ -1734,17 +1736,15 @@
         <v>27</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -1753,27 +1753,31 @@
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -1782,9 +1786,11 @@
         <v>10</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I57" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.5">
@@ -1800,7 +1806,7 @@
         <v>7</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -1815,10 +1821,10 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -1828,15 +1834,17 @@
         <v>27</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -1846,7 +1854,9 @@
         <v>27</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="C61" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -1854,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -1864,22 +1874,24 @@
         <v>27</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1887,19 +1899,17 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I63" s="4"/>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1907,17 +1917,17 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1925,44 +1935,38 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I66" s="4"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -1970,16 +1974,14 @@
         <v>10</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1987,19 +1989,17 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I68" s="4"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2010,16 +2010,16 @@
         <v>7</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2030,16 +2030,14 @@
         <v>10</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I70" s="4"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2050,118 +2048,118 @@
         <v>7</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="C72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I72" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="C73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I73" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2169,10 +2167,10 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>31</v>
@@ -2181,100 +2179,102 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="D78" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I78" s="4"/>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A79" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I79" s="4"/>
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A80" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I80" s="4"/>
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A81" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="D81" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="G82" s="4"/>
       <c r="H82" s="4" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -2292,9 +2292,11 @@
         <v>10</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I83" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.5">
@@ -2307,42 +2309,46 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I84" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A85" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B85" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I85" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A86" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B86" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -2350,9 +2356,11 @@
         <v>10</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.5">
@@ -2368,7 +2376,7 @@
         <v>10</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -2383,10 +2391,10 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -2404,7 +2412,7 @@
         <v>10</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -2419,10 +2427,10 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -2432,15 +2440,17 @@
         <v>39</v>
       </c>
       <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="C91" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -2450,22 +2460,24 @@
         <v>39</v>
       </c>
       <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="C92" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A93" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2473,19 +2485,17 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I93" s="4"/>
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A94" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2493,17 +2503,17 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A95" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2511,41 +2521,37 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A96" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A97" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -2554,14 +2560,14 @@
         <v>10</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A98" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2572,16 +2578,14 @@
         <v>7</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A99" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2589,17 +2593,19 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I99" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A100" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2607,40 +2613,38 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A101" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A102" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -2650,32 +2654,34 @@
         <v>10</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A103" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B103" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="G103" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H103" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I103" s="4"/>
-      <c r="J103" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A104" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2683,10 +2689,10 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>31</v>
@@ -2695,7 +2701,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A105" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2703,19 +2709,17 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A106" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2723,50 +2727,50 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I106" s="4"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A107" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B107" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A108" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B108" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
@@ -2780,14 +2784,14 @@
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G109" s="4"/>
       <c r="H109" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
+      <c r="J109" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A110" s="3" t="s">
@@ -2802,9 +2806,11 @@
         <v>10</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I110" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J110" s="4"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.5">
@@ -2820,9 +2826,11 @@
         <v>11</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I111" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J111" s="4"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.5">
@@ -2838,12 +2846,14 @@
         <v>10</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I112" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A113" s="3" t="s">
         <v>42</v>
       </c>
@@ -2853,12 +2863,14 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I113" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J113" s="4"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.5">
@@ -2874,7 +2886,7 @@
         <v>46</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
@@ -2892,32 +2904,32 @@
         <v>46</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A116" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+      <c r="G116" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H116" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I116" s="4"/>
-      <c r="J116" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="J116" s="4"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A117" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2925,17 +2937,17 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A118" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2943,17 +2955,17 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A119" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2961,17 +2973,17 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A120" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2979,57 +2991,53 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A121" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
+      <c r="G121" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H121" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="J121" s="4"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A122" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G122" s="4"/>
       <c r="H122" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I122" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J122" s="4"/>
-    </row>
-    <row r="123" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+        <v>44</v>
+      </c>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A123" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3037,19 +3045,17 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I123" s="4"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A124" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3057,19 +3063,17 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I124" s="4"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A125" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3077,256 +3081,297 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H125" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A126" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I125" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J125" s="4"/>
-    </row>
-    <row r="126" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A126" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I126" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A127" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G127" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
       <c r="H127" s="4" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A128" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
       <c r="G128" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
+        <v>69</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J128" s="4"/>
+    </row>
+    <row r="129" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A129" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
       <c r="G129" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
+        <v>70</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J129" s="4"/>
+    </row>
+    <row r="130" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A130" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
       <c r="G130" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I130" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
+        <v>14</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J130" s="4"/>
+    </row>
+    <row r="131" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A131" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
       <c r="G131" s="4" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I131" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A132" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="26.25" x14ac:dyDescent="0.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A133" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A134" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G134" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H134" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A135" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H135" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A136" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H136" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I135" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A136" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I136" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A137" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I137" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="I137" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A138" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A139" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I139" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A140" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G140" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="G140" s="4"/>
       <c r="H140" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A141" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I141" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A142" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.5">
+        <v>70</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A143" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.5">
+        <v>14</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A144" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A145" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>69</v>
@@ -3337,30 +3382,27 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A146" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A147" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="I147" s="4" t="s">
         <v>31</v>
@@ -3368,59 +3410,35 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A148" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I148" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A149" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
+        <v>47</v>
+      </c>
       <c r="G149" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I149" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A150" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
+        <v>47</v>
+      </c>
       <c r="G150" s="4" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.5">
@@ -3431,9 +3449,11 @@
         <v>10</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I151" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A152" s="3" t="s">
@@ -3443,153 +3463,151 @@
         <v>11</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A153" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="B153" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G153" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A154" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="B154" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G154" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A155" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="C155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
       <c r="G155" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A156" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="C156" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
       <c r="G156" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A157" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I157" s="4"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A158" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I158" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A159" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I159" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A160" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I160" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A161" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
+        <v>49</v>
+      </c>
       <c r="G161" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I161" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A162" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
+        <v>49</v>
+      </c>
       <c r="G162" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I162" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.5">
@@ -3597,10 +3615,13 @@
         <v>50</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>24</v>
+        <v>69</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.5">
@@ -3608,54 +3629,87 @@
         <v>50</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A165" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="B165" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G165" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A166" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="B166" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G166" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A167" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="C167" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
       <c r="G167" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A168" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="C168" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
       <c r="G168" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.5">
@@ -3663,10 +3717,10 @@
         <v>50</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.5">
@@ -3677,110 +3731,98 @@
         <v>7</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A171" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I171" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A172" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I172" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A173" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A174" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A175" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A176" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A177" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E177" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>13</v>
+        <v>68</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A178" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E178" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I178" s="4" t="s">
         <v>31</v>
@@ -3788,88 +3830,77 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A179" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A180" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G180" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H180" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I180" s="4"/>
-      <c r="J180" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A181" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I181" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A182" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I182" s="4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A183" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B183" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E183" t="s">
         <v>65</v>
       </c>
-      <c r="G183" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H183" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I183" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A184" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B184" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E184" t="s">
         <v>66</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I184" s="4" t="s">
         <v>31</v>
@@ -3877,16 +3908,13 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A185" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="I185" s="4" t="s">
         <v>31</v>
@@ -3896,16 +3924,12 @@
       <c r="A186" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C186" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G186" s="4"/>
       <c r="H186" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I186" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I186" s="4"/>
+      <c r="J186" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3917,7 +3941,10 @@
         <v>10</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>28</v>
+        <v>69</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.5">
@@ -3928,52 +3955,75 @@
         <v>11</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A189" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="B189" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G189" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A190" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="B190" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G190" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A191" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G191" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H191" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J191" t="s">
+        <v>19</v>
+      </c>
+      <c r="I191" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A192" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="I192" s="4" t="s">
         <v>31</v>
@@ -3981,66 +4031,58 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A193" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I193" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A194" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I194" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A195" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I195" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A196" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A197" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G197" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G197" s="4"/>
       <c r="H197" s="4" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="J197" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.5">
@@ -4048,21 +4090,24 @@
         <v>56</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+        <v>69</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A199" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I199" s="4" t="s">
         <v>31</v>
@@ -4070,13 +4115,13 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A200" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I200" s="4" t="s">
         <v>31</v>
@@ -4084,13 +4129,13 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A201" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I201" s="4" t="s">
         <v>31</v>
@@ -4098,85 +4143,82 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A202" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I202" s="4" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A203" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I203" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A204" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A205" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G204" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H204" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A205" s="3" t="s">
-        <v>60</v>
+      <c r="G205" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+      <c r="I205" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A206" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J206" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+        <v>69</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A207" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I207" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A208" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>65</v>
@@ -4191,9 +4233,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A209" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>66</v>
@@ -4208,67 +4250,145 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A210" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J210" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A211" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A212" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J212" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A213" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A214" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I214" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A215" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I215" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A216" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G211" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H211" s="4" t="s">
+      <c r="H216" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J216" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A217" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H217" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I211" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A212" s="3" t="s">
+      <c r="I217" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A218" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B218" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G212" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H212" s="4" t="s">
+      <c r="G218" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H218" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I212" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A213" s="3" t="s">
+      <c r="I218" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A219" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B219" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G213" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H213" s="4" t="s">
+      <c r="G219" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H219" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I213" s="4" t="s">
+      <c r="I219" s="4" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A213">
+  <conditionalFormatting sqref="A2:A219">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bboen\Documents\Repositories\CDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D317FE-50A8-4D2D-ACF2-E0DDECC39EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3DB1C8-7C9D-47CA-9C19-428A0923AC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47690" yWindow="2810" windowWidth="19300" windowHeight="20150" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="74">
   <si>
     <t>condition</t>
   </si>
@@ -650,11 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA6CB4-1F8C-2741-8D63-E91EE9F8BC95}">
-  <dimension ref="A1:J219"/>
+  <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -901,7 +901,9 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
@@ -921,12 +923,14 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -935,24 +939,18 @@
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
@@ -960,7 +958,7 @@
         <v>73</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -974,7 +972,9 @@
       <c r="H15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
@@ -994,34 +994,38 @@
         <v>10</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1032,12 +1036,14 @@
         <v>7</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1047,14 +1053,12 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
@@ -1067,10 +1071,10 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1085,10 +1089,10 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1103,10 +1107,10 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1115,16 +1119,18 @@
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1134,7 +1140,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1144,45 +1150,45 @@
         <v>10</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
@@ -1195,14 +1201,12 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
@@ -1215,10 +1219,10 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1227,16 +1231,18 @@
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1246,7 +1252,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1256,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1265,18 +1271,18 @@
       <c r="A31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -1296,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -1313,7 +1319,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>19</v>
@@ -1321,14 +1327,12 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1336,9 +1340,11 @@
         <v>10</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.5">
@@ -1351,32 +1357,34 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I36" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.5">
@@ -1384,7 +1392,7 @@
         <v>17</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1394,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>31</v>
@@ -1405,9 +1413,7 @@
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1416,11 +1422,9 @@
         <v>10</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.5">
@@ -1433,17 +1437,17 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1451,12 +1455,14 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.5">
@@ -1469,32 +1475,34 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I42" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.5">
@@ -1502,7 +1510,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1512,36 +1520,34 @@
         <v>10</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G44" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
         <v>20</v>
       </c>
@@ -1549,50 +1555,50 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.5">
@@ -1605,19 +1611,17 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1625,12 +1629,14 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I49" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.5">
@@ -1646,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>31</v>
@@ -1666,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>31</v>
@@ -1686,16 +1692,14 @@
         <v>7</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1703,12 +1707,14 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I53" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.5">
@@ -1721,32 +1727,34 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I55" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.5">
@@ -1754,7 +1762,7 @@
         <v>27</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1764,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>31</v>
@@ -1775,22 +1783,18 @@
       <c r="A57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.5">
@@ -1806,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -1816,7 +1820,9 @@
         <v>27</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="C59" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -1824,7 +1830,7 @@
         <v>7</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -1841,7 +1847,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>19</v>
@@ -1861,10 +1867,10 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -1874,17 +1880,15 @@
         <v>27</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -1899,10 +1903,10 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -1917,10 +1921,10 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -1935,7 +1939,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>28</v>
@@ -1953,10 +1957,10 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -1971,7 +1975,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>29</v>
@@ -1979,9 +1983,9 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1989,15 +1993,17 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="s">
         <v>32</v>
       </c>
@@ -2007,14 +2013,12 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.5">
@@ -2027,20 +2031,22 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="C71" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -2048,9 +2054,11 @@
         <v>7</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I71" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
@@ -2065,7 +2073,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>19</v>
@@ -2077,12 +2085,10 @@
     </row>
     <row r="73" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B73" s="4"/>
-      <c r="C73" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -2090,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>31</v>
@@ -2107,7 +2113,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>35</v>
@@ -2127,10 +2133,10 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>31</v>
@@ -2147,7 +2153,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>36</v>
@@ -2157,24 +2163,24 @@
       </c>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="D77" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I77" s="4"/>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.5">
@@ -2189,10 +2195,10 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -2201,7 +2207,9 @@
       <c r="A79" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
         <v>66</v>
@@ -2209,10 +2217,10 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -2222,7 +2230,7 @@
         <v>37</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
@@ -2234,7 +2242,7 @@
         <v>10</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -2243,40 +2251,38 @@
       <c r="A81" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="G82" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H82" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.5">
@@ -2289,10 +2295,10 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>31</v>
@@ -2303,16 +2309,18 @@
       <c r="A84" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B84" s="4"/>
+      <c r="B84" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>31</v>
@@ -2324,7 +2332,7 @@
         <v>39</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2334,7 +2342,7 @@
         <v>10</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>31</v>
@@ -2345,9 +2353,7 @@
       <c r="A86" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -2356,11 +2362,9 @@
         <v>10</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.5">
@@ -2373,7 +2377,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>35</v>
@@ -2391,10 +2395,10 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -2409,7 +2413,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>36</v>
@@ -2422,7 +2426,9 @@
         <v>39</v>
       </c>
       <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+      <c r="C90" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -2430,7 +2436,7 @@
         <v>7</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -2447,7 +2453,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>19</v>
@@ -2460,9 +2466,7 @@
         <v>39</v>
       </c>
       <c r="B92" s="4"/>
-      <c r="C92" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -2470,7 +2474,7 @@
         <v>10</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -2485,7 +2489,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>28</v>
@@ -2503,10 +2507,10 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -2521,7 +2525,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>29</v>
@@ -2539,10 +2543,10 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -2557,17 +2561,17 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A98" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2578,12 +2582,14 @@
         <v>7</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I98" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A99" s="3" t="s">
         <v>40</v>
       </c>
@@ -2593,14 +2599,12 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.5">
@@ -2613,10 +2617,10 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -2625,16 +2629,18 @@
       <c r="A101" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="4"/>
+      <c r="B101" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
@@ -2644,7 +2650,7 @@
         <v>40</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -2654,32 +2660,32 @@
         <v>10</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A103" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I103" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A104" s="3" t="s">
         <v>41</v>
       </c>
@@ -2689,14 +2695,12 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.5">
@@ -2709,10 +2713,10 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -2721,16 +2725,18 @@
       <c r="A106" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B106" s="4"/>
+      <c r="B106" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -2740,7 +2746,7 @@
         <v>41</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -2750,30 +2756,28 @@
         <v>10</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A108" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G108" s="4"/>
       <c r="H108" s="4" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
+      <c r="J108" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A109" s="3" t="s">
@@ -2784,14 +2788,16 @@
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="G109" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H109" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A110" s="3" t="s">
@@ -2803,10 +2809,10 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I110" s="4" t="s">
         <v>31</v>
@@ -2823,17 +2829,17 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I111" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A112" s="3" t="s">
         <v>42</v>
       </c>
@@ -2843,17 +2849,17 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A113" s="3" t="s">
         <v>42</v>
       </c>
@@ -2863,14 +2869,12 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.5">
@@ -2886,7 +2890,7 @@
         <v>46</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
@@ -2901,10 +2905,10 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
@@ -2919,7 +2923,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>28</v>
@@ -2937,10 +2941,10 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -2955,7 +2959,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>29</v>
@@ -2973,10 +2977,10 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -2994,28 +2998,28 @@
         <v>46</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A121" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G121" s="4"/>
       <c r="H121" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
+      <c r="J121" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A122" s="3" t="s">
@@ -3026,14 +3030,14 @@
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
+      <c r="G122" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H122" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I122" s="4"/>
-      <c r="J122" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="J122" s="4"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A123" s="3" t="s">
@@ -3045,10 +3049,10 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
@@ -3063,15 +3067,15 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A125" s="3" t="s">
         <v>44</v>
       </c>
@@ -3081,35 +3085,35 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I125" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A126" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="G126" s="4"/>
       <c r="H126" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J126" s="4"/>
-    </row>
-    <row r="127" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
+        <v>45</v>
+      </c>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A127" s="3" t="s">
         <v>45</v>
       </c>
@@ -3118,14 +3122,16 @@
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
+      <c r="G127" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H127" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J127" s="4"/>
     </row>
     <row r="128" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A128" s="3" t="s">
@@ -3137,10 +3143,10 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I128" s="4" t="s">
         <v>31</v>
@@ -3157,17 +3163,17 @@
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I129" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A130" s="3" t="s">
         <v>45</v>
       </c>
@@ -3177,42 +3183,33 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A131" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
       <c r="G131" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J131" s="4"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="132" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A132" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H132" s="4" t="s">
         <v>28</v>
@@ -3223,10 +3220,10 @@
         <v>45</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
@@ -3234,7 +3231,7 @@
         <v>45</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H134" s="4" t="s">
         <v>29</v>
@@ -3245,10 +3242,13 @@
         <v>45</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
+      </c>
+      <c r="I135" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
@@ -3259,7 +3259,7 @@
         <v>46</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I136" t="s">
         <v>31</v>
@@ -3273,10 +3273,7 @@
         <v>46</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I137" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
@@ -3287,27 +3284,30 @@
         <v>46</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A139" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G139" s="4"/>
       <c r="H139" s="4" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A140" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G140" s="4"/>
+      <c r="G140" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H140" s="4" t="s">
-        <v>47</v>
+        <v>69</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.5">
@@ -3315,10 +3315,10 @@
         <v>47</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I141" s="4" t="s">
         <v>31</v>
@@ -3329,38 +3329,38 @@
         <v>47</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I142" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A143" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="I143" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A144" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I144" s="4" t="s">
         <v>31</v>
@@ -3374,13 +3374,13 @@
         <v>48</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A146" s="3" t="s">
         <v>47</v>
       </c>
@@ -3388,24 +3388,21 @@
         <v>48</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A147" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I147" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.5">
@@ -3413,7 +3410,7 @@
         <v>47</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>29</v>
@@ -3424,7 +3421,7 @@
         <v>47</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>29</v>
@@ -3432,13 +3429,16 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A150" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.5">
@@ -3446,10 +3446,10 @@
         <v>49</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>31</v>
@@ -3459,11 +3459,14 @@
       <c r="A152" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="B152" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G152" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I152" s="4" t="s">
         <v>31</v>
@@ -3474,13 +3477,13 @@
         <v>49</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I153" s="4" t="s">
         <v>31</v>
@@ -3490,14 +3493,17 @@
       <c r="A154" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="C154" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
       <c r="G154" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I154" s="4" t="s">
         <v>31</v>
@@ -3514,7 +3520,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>19</v>
@@ -3527,43 +3533,34 @@
       <c r="A156" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
       <c r="G156" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I156" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I156" s="4"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A157" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H157" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I157" s="4"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A158" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.5">
@@ -3571,7 +3568,7 @@
         <v>49</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>29</v>
@@ -3582,10 +3579,10 @@
         <v>49</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.5">
@@ -3593,7 +3590,7 @@
         <v>49</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>35</v>
@@ -3601,13 +3598,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A162" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>35</v>
+        <v>69</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.5">
@@ -3615,10 +3615,10 @@
         <v>50</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I163" s="4" t="s">
         <v>31</v>
@@ -3628,11 +3628,14 @@
       <c r="A164" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="B164" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G164" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I164" s="4" t="s">
         <v>31</v>
@@ -3643,13 +3646,13 @@
         <v>50</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I165" s="4" t="s">
         <v>31</v>
@@ -3659,14 +3662,17 @@
       <c r="A166" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B166" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="C166" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
       <c r="G166" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I166" s="4" t="s">
         <v>31</v>
@@ -3683,7 +3689,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>19</v>
@@ -3696,20 +3702,11 @@
       <c r="A168" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
       <c r="G168" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.5">
@@ -3720,7 +3717,7 @@
         <v>7</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.5">
@@ -3728,10 +3725,10 @@
         <v>50</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.5">
@@ -3739,7 +3736,7 @@
         <v>50</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H171" s="4" t="s">
         <v>28</v>
@@ -3750,10 +3747,10 @@
         <v>50</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.5">
@@ -3761,7 +3758,7 @@
         <v>50</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H173" s="4" t="s">
         <v>29</v>
@@ -3772,10 +3769,10 @@
         <v>50</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.5">
@@ -3783,7 +3780,7 @@
         <v>50</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H175" s="4" t="s">
         <v>36</v>
@@ -3791,13 +3788,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A176" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.5">
@@ -3805,10 +3805,10 @@
         <v>51</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I177" s="4" t="s">
         <v>31</v>
@@ -3819,13 +3819,10 @@
         <v>51</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.5">
@@ -3833,21 +3830,24 @@
         <v>51</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A180" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="B180" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G180" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.5">
@@ -3855,27 +3855,24 @@
         <v>51</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A182" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="E182" t="s">
+        <v>65</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.5">
@@ -3883,18 +3880,21 @@
         <v>52</v>
       </c>
       <c r="E183" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>13</v>
+        <v>68</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A184" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E184" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>10</v>
@@ -3908,15 +3908,14 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A185" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G185" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G185" s="4"/>
       <c r="H185" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I185" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I185" s="4"/>
+      <c r="J185" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3924,12 +3923,13 @@
       <c r="A186" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G186" s="4"/>
+      <c r="G186" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H186" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I186" s="4"/>
-      <c r="J186" t="s">
+        <v>69</v>
+      </c>
+      <c r="I186" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3938,10 +3938,10 @@
         <v>55</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I187" s="4" t="s">
         <v>31</v>
@@ -3951,11 +3951,14 @@
       <c r="A188" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="B188" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G188" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I188" s="4" t="s">
         <v>31</v>
@@ -3966,13 +3969,13 @@
         <v>55</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I189" s="4" t="s">
         <v>31</v>
@@ -3982,14 +3985,14 @@
       <c r="A190" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B190" s="4" t="s">
-        <v>66</v>
+      <c r="C190" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I190" s="4" t="s">
         <v>31</v>
@@ -4003,7 +4006,7 @@
         <v>8</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>19</v>
@@ -4016,17 +4019,11 @@
       <c r="A192" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C192" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="G192" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I192" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.5">
@@ -4034,7 +4031,7 @@
         <v>55</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H193" s="4" t="s">
         <v>28</v>
@@ -4045,10 +4042,10 @@
         <v>55</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.5">
@@ -4056,7 +4053,7 @@
         <v>55</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H195" s="4" t="s">
         <v>29</v>
@@ -4064,24 +4061,27 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A196" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G196" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G196" s="4"/>
       <c r="H196" s="4" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="J196" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A197" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G197" s="4"/>
+      <c r="G197" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H197" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J197" t="s">
+        <v>69</v>
+      </c>
+      <c r="I197" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4090,10 +4090,10 @@
         <v>56</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I198" s="4" t="s">
         <v>31</v>
@@ -4104,10 +4104,10 @@
         <v>56</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I199" s="4" t="s">
         <v>31</v>
@@ -4118,7 +4118,7 @@
         <v>56</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="H200" s="4" t="s">
         <v>12</v>
@@ -4132,13 +4132,10 @@
         <v>56</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I201" s="4" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.5">
@@ -4149,7 +4146,7 @@
         <v>10</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.5">
@@ -4157,32 +4154,35 @@
         <v>56</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H203" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A204" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+      <c r="I204" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A205" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I205" s="4" t="s">
         <v>31</v>
@@ -4193,10 +4193,10 @@
         <v>59</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I206" s="4" t="s">
         <v>31</v>
@@ -4206,11 +4206,14 @@
       <c r="A207" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="B207" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G207" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I207" s="4" t="s">
         <v>31</v>
@@ -4221,13 +4224,13 @@
         <v>59</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I208" s="4" t="s">
         <v>31</v>
@@ -4237,46 +4240,43 @@
       <c r="A209" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B209" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="G209" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I209" s="4" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A210" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G210" s="4" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A211" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+        <v>62</v>
+      </c>
+      <c r="J211" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A212" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="G212" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H212" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J212" t="s">
+        <v>69</v>
+      </c>
+      <c r="I212" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4284,11 +4284,14 @@
       <c r="A213" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="B213" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G213" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I213" s="4" t="s">
         <v>31</v>
@@ -4299,43 +4302,40 @@
         <v>61</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I214" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A215" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G215" s="4" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I215" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+        <v>64</v>
+      </c>
+      <c r="J215" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A216" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="G216" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H216" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J216" t="s">
+        <v>69</v>
+      </c>
+      <c r="I216" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4343,11 +4343,14 @@
       <c r="A217" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="B217" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G217" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I217" s="4" t="s">
         <v>31</v>
@@ -4358,37 +4361,20 @@
         <v>63</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G218" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I218" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A219" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G219" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H219" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I219" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A219">
+  <conditionalFormatting sqref="A2:A218">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bboen\Documents\Repositories\CDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3DB1C8-7C9D-47CA-9C19-428A0923AC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5185E22-E698-4715-B098-93B172B953C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47690" yWindow="2810" windowWidth="19300" windowHeight="20150" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="74">
   <si>
     <t>condition</t>
   </si>
@@ -650,11 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA6CB4-1F8C-2741-8D63-E91EE9F8BC95}">
-  <dimension ref="A1:J218"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -982,13 +982,13 @@
         <v>73</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>10</v>
@@ -1009,59 +1009,63 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G18" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1074,9 +1078,11 @@
         <v>7</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.5">
@@ -1092,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1107,10 +1113,10 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1119,9 +1125,7 @@
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1130,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1139,72 +1143,72 @@
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H25" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1219,21 +1223,21 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1242,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1251,18 +1255,16 @@
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1271,18 +1273,18 @@
       <c r="A31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -1291,18 +1293,18 @@
       <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -1319,48 +1321,50 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -1369,9 +1373,7 @@
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1380,7 +1382,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>31</v>
@@ -1391,29 +1393,27 @@
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1422,32 +1422,38 @@
         <v>10</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1458,16 +1464,14 @@
         <v>10</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1475,10 +1479,10 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -1487,9 +1491,7 @@
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1498,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>31</v>
@@ -1509,81 +1511,87 @@
       <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I44" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I45" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H46" s="4" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1591,37 +1599,33 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1629,10 +1633,10 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>31</v>
@@ -1641,7 +1645,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1649,14 +1653,12 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.5">
@@ -1672,7 +1674,7 @@
         <v>7</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>31</v>
@@ -1692,14 +1694,16 @@
         <v>7</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I52" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1707,10 +1711,10 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>31</v>
@@ -1719,7 +1723,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1727,10 +1731,10 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -1739,9 +1743,7 @@
       <c r="A55" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -1750,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>31</v>
@@ -1761,58 +1763,62 @@
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I57" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I58" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.5">
@@ -1820,9 +1826,7 @@
         <v>27</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -1830,7 +1834,7 @@
         <v>7</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -1840,17 +1844,15 @@
         <v>27</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -1870,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -1880,7 +1882,9 @@
         <v>27</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -1888,7 +1892,7 @@
         <v>10</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -1898,7 +1902,9 @@
         <v>27</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -1906,7 +1912,7 @@
         <v>7</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -1924,7 +1930,7 @@
         <v>10</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -1939,10 +1945,10 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -1960,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -1978,14 +1984,14 @@
         <v>11</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1993,19 +1999,17 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I68" s="4"/>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2013,15 +2017,15 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="s">
         <v>32</v>
       </c>
@@ -2034,69 +2038,65 @@
         <v>7</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I70" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B71" s="4"/>
-      <c r="C71" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B72" s="4"/>
-      <c r="C72" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="C73" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>31</v>
@@ -2105,18 +2105,20 @@
     </row>
     <row r="74" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>31</v>
@@ -2136,7 +2138,7 @@
         <v>10</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>31</v>
@@ -2156,60 +2158,58 @@
         <v>7</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I77" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I78" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A79" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
         <v>66</v>
@@ -2220,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -2229,9 +2229,7 @@
       <c r="A80" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
         <v>66</v>
@@ -2239,10 +2237,10 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -2251,67 +2249,69 @@
       <c r="A81" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B81" s="4"/>
+      <c r="B81" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+      <c r="G81" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H81" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I82" s="4"/>
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A83" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="D83" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G83" s="4"/>
       <c r="H83" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A84" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -2320,7 +2320,7 @@
         <v>10</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>31</v>
@@ -2331,18 +2331,16 @@
       <c r="A85" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>31</v>
@@ -2353,7 +2351,9 @@
       <c r="A86" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -2362,27 +2362,33 @@
         <v>10</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I86" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A87" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B87" s="4"/>
+      <c r="B87" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I87" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.5">
@@ -2398,7 +2404,7 @@
         <v>10</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -2416,7 +2422,7 @@
         <v>7</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -2426,17 +2432,15 @@
         <v>39</v>
       </c>
       <c r="B90" s="4"/>
-      <c r="C90" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -2446,17 +2450,15 @@
         <v>39</v>
       </c>
       <c r="B91" s="4"/>
-      <c r="C91" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -2466,15 +2468,17 @@
         <v>39</v>
       </c>
       <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="C92" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -2484,15 +2488,17 @@
         <v>39</v>
       </c>
       <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="C93" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -2510,7 +2516,7 @@
         <v>10</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -2528,7 +2534,7 @@
         <v>11</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -2546,7 +2552,7 @@
         <v>10</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -2561,17 +2567,17 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A98" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2579,19 +2585,17 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A99" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2599,15 +2603,15 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A100" s="3" t="s">
         <v>40</v>
       </c>
@@ -2617,21 +2621,21 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I100" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A101" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -2640,7 +2644,7 @@
         <v>10</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
@@ -2649,47 +2653,47 @@
       <c r="A102" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A103" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B103" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I103" s="4"/>
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A104" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B104" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -2698,12 +2702,12 @@
         <v>10</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A105" s="3" t="s">
         <v>41</v>
       </c>
@@ -2713,21 +2717,21 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I105" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A106" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -2736,7 +2740,7 @@
         <v>10</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -2745,45 +2749,47 @@
       <c r="A107" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A108" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B108" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="G108" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H108" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I108" s="4"/>
-      <c r="J108" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A109" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B109" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -2792,11 +2798,9 @@
         <v>10</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.5">
@@ -2808,16 +2812,14 @@
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G110" s="4"/>
       <c r="H110" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J110" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A111" s="3" t="s">
@@ -2832,14 +2834,14 @@
         <v>10</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I111" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A112" s="3" t="s">
         <v>42</v>
       </c>
@@ -2849,10 +2851,10 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>31</v>
@@ -2869,15 +2871,17 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I113" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A114" s="3" t="s">
         <v>42</v>
       </c>
@@ -2887,12 +2891,14 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J114" s="4"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.5">
@@ -2905,10 +2911,10 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
@@ -2923,10 +2929,10 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
@@ -2944,7 +2950,7 @@
         <v>10</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -2962,7 +2968,7 @@
         <v>11</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
@@ -2977,10 +2983,10 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -2995,7 +3001,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>29</v>
@@ -3005,25 +3011,25 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A121" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
+      <c r="G121" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H121" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="J121" s="4"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A122" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3031,10 +3037,10 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -3048,14 +3054,14 @@
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G123" s="4"/>
       <c r="H123" s="4" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
+      <c r="J123" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A124" s="3" t="s">
@@ -3070,12 +3076,12 @@
         <v>10</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A125" s="3" t="s">
         <v>44</v>
       </c>
@@ -3085,37 +3091,35 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I125" s="4"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A126" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
+      <c r="G126" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H126" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="I126" s="4"/>
-      <c r="J126" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A127" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -3123,17 +3127,17 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A128" s="3" t="s">
         <v>45</v>
       </c>
@@ -3142,16 +3146,14 @@
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G128" s="4"/>
       <c r="H128" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J128" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="129" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A129" s="3" t="s">
@@ -3166,14 +3168,14 @@
         <v>10</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I129" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A130" s="3" t="s">
         <v>45</v>
       </c>
@@ -3183,10 +3185,10 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>31</v>
@@ -3197,23 +3199,41 @@
       <c r="A131" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
       <c r="G131" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+        <v>14</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A132" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
       <c r="G132" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J132" s="4"/>
     </row>
     <row r="133" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A133" s="3" t="s">
@@ -3223,7 +3243,7 @@
         <v>10</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
@@ -3234,7 +3254,7 @@
         <v>11</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
@@ -3242,13 +3262,10 @@
         <v>45</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
@@ -3256,13 +3273,10 @@
         <v>45</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I136" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
@@ -3273,7 +3287,10 @@
         <v>46</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
+      </c>
+      <c r="I137" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
@@ -3284,44 +3301,41 @@
         <v>46</v>
       </c>
       <c r="H138" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A139" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A140" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H140" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A139" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A140" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A141" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G141" s="4"/>
       <c r="H141" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.5">
@@ -3332,21 +3346,21 @@
         <v>10</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I142" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A143" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I143" s="4" t="s">
         <v>31</v>
@@ -3357,30 +3371,30 @@
         <v>47</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I144" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A145" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A146" s="3" t="s">
         <v>47</v>
       </c>
@@ -3388,7 +3402,7 @@
         <v>48</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>31</v>
@@ -3399,21 +3413,27 @@
         <v>47</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.5">
+        <v>14</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A148" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.5">
@@ -3421,7 +3441,7 @@
         <v>47</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>29</v>
@@ -3429,44 +3449,35 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A150" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A151" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A152" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="G152" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I152" s="4" t="s">
         <v>31</v>
@@ -3476,14 +3487,11 @@
       <c r="A153" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="G153" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I153" s="4" t="s">
         <v>31</v>
@@ -3493,17 +3501,14 @@
       <c r="A154" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
+      <c r="B154" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G154" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I154" s="4" t="s">
         <v>31</v>
@@ -3513,17 +3518,14 @@
       <c r="A155" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
+      <c r="B155" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G155" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I155" s="4" t="s">
         <v>31</v>
@@ -3533,23 +3535,40 @@
       <c r="A156" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="C156" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
       <c r="G156" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I156" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A157" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="C157" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
       <c r="G157" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.5">
@@ -3560,8 +3579,9 @@
         <v>10</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I158" s="4"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A159" s="3" t="s">
@@ -3571,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.5">
@@ -3582,7 +3602,7 @@
         <v>10</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.5">
@@ -3590,52 +3610,43 @@
         <v>49</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A162" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I162" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A163" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I163" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A164" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="G164" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I164" s="4" t="s">
         <v>31</v>
@@ -3645,14 +3656,11 @@
       <c r="A165" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="G165" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I165" s="4" t="s">
         <v>31</v>
@@ -3662,17 +3670,14 @@
       <c r="A166" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
+      <c r="B166" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G166" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I166" s="4" t="s">
         <v>31</v>
@@ -3682,17 +3687,14 @@
       <c r="A167" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
+      <c r="B167" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G167" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I167" s="4" t="s">
         <v>31</v>
@@ -3702,22 +3704,40 @@
       <c r="A168" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="C168" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
       <c r="G168" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A169" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="C169" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
       <c r="G169" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.5">
@@ -3725,10 +3745,10 @@
         <v>50</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.5">
@@ -3736,10 +3756,10 @@
         <v>50</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.5">
@@ -3750,7 +3770,7 @@
         <v>10</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.5">
@@ -3761,7 +3781,7 @@
         <v>11</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.5">
@@ -3772,7 +3792,7 @@
         <v>10</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.5">
@@ -3780,38 +3800,32 @@
         <v>50</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A176" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I176" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A177" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I177" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.5">
@@ -3822,7 +3836,10 @@
         <v>10</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.5">
@@ -3830,104 +3847,102 @@
         <v>51</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A180" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="G180" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A181" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B181" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="G181" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A182" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E182" t="s">
+        <v>51</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="G182" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H182" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A183" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E183" t="s">
+        <v>51</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>66</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I183" s="4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A184" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="E184" t="s">
+        <v>65</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I184" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A185" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G185" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="E185" t="s">
+        <v>66</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H185" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I185" s="4"/>
-      <c r="J185" t="s">
+        <v>68</v>
+      </c>
+      <c r="I185" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A186" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I186" s="4" t="s">
         <v>31</v>
@@ -3937,13 +3952,12 @@
       <c r="A187" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G187" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G187" s="4"/>
       <c r="H187" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I187" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I187" s="4"/>
+      <c r="J187" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3951,14 +3965,11 @@
       <c r="A188" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="G188" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I188" s="4" t="s">
         <v>31</v>
@@ -3968,14 +3979,11 @@
       <c r="A189" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B189" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="G189" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I189" s="4" t="s">
         <v>31</v>
@@ -3985,14 +3993,14 @@
       <c r="A190" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C190" s="4" t="s">
-        <v>8</v>
+      <c r="B190" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I190" s="4" t="s">
         <v>31</v>
@@ -4002,14 +4010,14 @@
       <c r="A191" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>8</v>
+      <c r="B191" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I191" s="4" t="s">
         <v>31</v>
@@ -4019,22 +4027,34 @@
       <c r="A192" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C192" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G192" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A193" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C193" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G193" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.5">
@@ -4045,7 +4065,7 @@
         <v>10</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.5">
@@ -4056,46 +4076,40 @@
         <v>11</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A196" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G196" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H196" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J196" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A197" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I197" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A198" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G198" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G198" s="4"/>
       <c r="H198" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I198" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J198" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4107,7 +4121,7 @@
         <v>10</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I199" s="4" t="s">
         <v>31</v>
@@ -4118,10 +4132,10 @@
         <v>56</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I200" s="4" t="s">
         <v>31</v>
@@ -4135,7 +4149,10 @@
         <v>10</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>68</v>
+        <v>12</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.5">
@@ -4143,10 +4160,13 @@
         <v>56</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="I202" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.5">
@@ -4154,49 +4174,43 @@
         <v>56</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H203" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A204" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H204" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A204" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H204" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I204" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A205" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I205" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A206" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I206" s="4" t="s">
         <v>31</v>
@@ -4206,14 +4220,11 @@
       <c r="A207" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="G207" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I207" s="4" t="s">
         <v>31</v>
@@ -4223,14 +4234,11 @@
       <c r="A208" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B208" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="G208" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I208" s="4" t="s">
         <v>31</v>
@@ -4240,60 +4248,63 @@
       <c r="A209" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="B209" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G209" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>67</v>
+        <v>14</v>
+      </c>
+      <c r="I209" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A210" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I210" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A211" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A212" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H210" s="4" t="s">
+      <c r="H212" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A211" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H211" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J211" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A212" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G212" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H212" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I212" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A213" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B213" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G213" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H213" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I213" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J213" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4301,58 +4312,58 @@
       <c r="A214" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="G214" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I214" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A215" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I215" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A216" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G214" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H214" s="4" t="s">
+      <c r="G216" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H216" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I214" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A215" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H215" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J215" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A216" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G216" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H216" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="I216" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A217" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B217" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G217" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H217" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I217" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J217" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4360,21 +4371,52 @@
       <c r="A218" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="G218" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I218" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A219" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I219" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A220" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B220" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G218" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H218" s="4" t="s">
+      <c r="G220" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H220" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I218" s="4" t="s">
+      <c r="I220" s="4" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A218">
+  <conditionalFormatting sqref="A2:A220">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bboen\Documents\Repositories\CDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5185E22-E698-4715-B098-93B172B953C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072FDF4-0407-42B6-9302-3BACA34681FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47690" yWindow="2810" windowWidth="19300" windowHeight="20150" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
+    <workbookView xWindow="28850" yWindow="2270" windowWidth="20200" windowHeight="20740" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="74">
   <si>
     <t>condition</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Sinusitis without Dental Involvement</t>
   </si>
   <si>
-    <t>Strangles with Abscess</t>
-  </si>
-  <si>
     <t>Strangles with Airway Obstruction</t>
   </si>
   <si>
@@ -257,6 +254,9 @@
   </si>
   <si>
     <t>Contaminated Limb Wounds with Synovial Involvement</t>
+  </si>
+  <si>
+    <t>Suppurative Strangles</t>
   </si>
 </sst>
 </file>
@@ -650,11 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA6CB4-1F8C-2741-8D63-E91EE9F8BC95}">
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -680,10 +680,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
@@ -719,29 +719,29 @@
     </row>
     <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -761,7 +761,7 @@
     </row>
     <row r="5" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -772,14 +772,14 @@
         <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -790,21 +790,21 @@
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>10</v>
@@ -817,16 +817,16 @@
     </row>
     <row r="8" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>10</v>
@@ -834,14 +834,12 @@
       <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -852,14 +850,14 @@
         <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -870,14 +868,14 @@
         <v>7</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -886,58 +884,58 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -948,23 +946,23 @@
         <v>11</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>10</v>
@@ -973,22 +971,22 @@
         <v>14</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>10</v>
@@ -1001,10 +999,10 @@
     </row>
     <row r="17" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1021,16 +1019,16 @@
     </row>
     <row r="18" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>10</v>
@@ -1039,22 +1037,22 @@
         <v>12</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>10</v>
@@ -1078,10 +1076,10 @@
         <v>7</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -1098,7 +1096,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1116,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1134,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1152,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1161,9 +1159,7 @@
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1182,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1217,7 +1213,9 @@
       <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1226,10 +1224,10 @@
         <v>7</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -1237,16 +1235,18 @@
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1261,10 +1261,10 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1273,9 +1273,7 @@
       <c r="A31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1284,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -1293,18 +1291,16 @@
       <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -1314,17 +1310,15 @@
         <v>18</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -1333,18 +1327,18 @@
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -1361,48 +1355,50 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -1411,9 +1407,7 @@
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1422,10 +1416,10 @@
         <v>10</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J38" s="4"/>
     </row>
@@ -1433,21 +1427,19 @@
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J39" s="4"/>
     </row>
@@ -1455,7 +1447,9 @@
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1464,34 +1458,40 @@
         <v>10</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I40" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1500,16 +1500,16 @@
         <v>10</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1517,43 +1517,37 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1562,14 +1556,14 @@
         <v>10</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
         <v>20</v>
       </c>
@@ -1577,57 +1571,67 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I46" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I47" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H48" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -1636,16 +1640,16 @@
         <v>10</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1653,7 +1657,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>70</v>
@@ -1663,7 +1667,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1674,36 +1678,30 @@
         <v>7</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1711,19 +1709,19 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1731,17 +1729,19 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I54" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1749,81 +1749,79 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I56" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1831,17 +1829,19 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I59" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1849,42 +1849,46 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I60" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -1892,88 +1896,100 @@
         <v>10</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="C64" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I64" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I65" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1981,17 +1997,17 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1999,17 +2015,17 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2017,17 +2033,17 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2035,19 +2051,17 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I70" s="4"/>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2058,14 +2072,14 @@
         <v>10</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2073,22 +2087,20 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B73" s="4"/>
-      <c r="C73" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -2096,21 +2108,19 @@
         <v>7</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A74" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A74" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="B74" s="4"/>
-      <c r="C74" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -2118,16 +2128,14 @@
         <v>10</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I74" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A75" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A75" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2135,22 +2143,22 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -2158,19 +2166,21 @@
         <v>7</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -2178,16 +2188,16 @@
         <v>10</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2195,88 +2205,84 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A79" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I79" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A80" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I80" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A81" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -2284,14 +2290,14 @@
         <v>10</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A83" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2300,82 +2306,82 @@
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+      <c r="G83" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H83" s="4" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A84" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A85" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B85" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="D85" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I85" s="4"/>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A86" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="D86" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G86" s="4"/>
       <c r="H86" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A87" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -2384,16 +2390,16 @@
         <v>10</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A88" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2401,37 +2407,45 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I88" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A89" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B89" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I89" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A90" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B90" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -2440,14 +2454,16 @@
         <v>10</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I90" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A91" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2455,22 +2471,20 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A92" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B92" s="4"/>
-      <c r="C92" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -2478,19 +2492,17 @@
         <v>7</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A93" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B93" s="4"/>
-      <c r="C93" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -2498,14 +2510,14 @@
         <v>10</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A94" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2513,38 +2525,42 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A95" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="C95" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A96" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="C96" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -2552,14 +2568,14 @@
         <v>10</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A97" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2567,17 +2583,17 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A98" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2585,17 +2601,17 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A99" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2603,17 +2619,17 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A100" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2621,19 +2637,17 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A101" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2644,14 +2658,14 @@
         <v>10</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A102" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2659,41 +2673,39 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A103" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A104" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -2702,14 +2714,14 @@
         <v>10</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A105" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2717,21 +2729,21 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A106" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B106" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -2740,56 +2752,56 @@
         <v>10</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A107" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B107" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A108" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I108" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A109" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -2798,34 +2810,36 @@
         <v>10</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A110" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+      <c r="G110" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H110" s="4" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I110" s="4"/>
-      <c r="J110" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="J110" s="4"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A111" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B111" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -2834,56 +2848,52 @@
         <v>10</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A112" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B112" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A113" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G113" s="4"/>
       <c r="H113" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J113" s="4"/>
-    </row>
-    <row r="114" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+        <v>41</v>
+      </c>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A114" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2891,19 +2901,19 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J114" s="4"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A115" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2911,17 +2921,19 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I115" s="4"/>
+      <c r="I115" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J115" s="4"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A116" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2929,17 +2941,19 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I116" s="4"/>
+      <c r="I116" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A117" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2947,17 +2961,19 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I117" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J117" s="4"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A118" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2965,17 +2981,17 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A119" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2983,17 +2999,17 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A120" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -3001,17 +3017,17 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A121" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3019,17 +3035,17 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A122" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3037,35 +3053,35 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A123" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
+      <c r="G123" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H123" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I123" s="4"/>
-      <c r="J123" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="J123" s="4"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A124" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3073,17 +3089,17 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A125" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3091,35 +3107,35 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A126" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G126" s="4"/>
       <c r="H126" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-    </row>
-    <row r="127" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="J126" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A127" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -3127,37 +3143,35 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I127" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I127" s="4"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A128" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
+      <c r="G128" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H128" s="4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="I128" s="4"/>
-      <c r="J128" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="J128" s="4"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A129" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -3168,16 +3182,14 @@
         <v>10</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I129" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I129" s="4"/>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A130" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -3185,39 +3197,37 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>70</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A131" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G131" s="4"/>
       <c r="H131" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J131" s="4"/>
-    </row>
-    <row r="132" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+        <v>44</v>
+      </c>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A132" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -3225,1165 +3235,1183 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J132" s="4"/>
     </row>
     <row r="133" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A133" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
       <c r="G133" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J133" s="4"/>
     </row>
     <row r="134" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A134" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
       <c r="G134" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+        <v>14</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A135" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
       <c r="G135" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J135" s="4"/>
     </row>
     <row r="136" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A136" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A137" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I137" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A138" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I138" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A139" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A140" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G140" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G140" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="H140" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I140" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A141" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A142" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H142" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A141" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A142" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A143" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A144" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G144" s="4"/>
       <c r="H144" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A145" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A146" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A147" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A148" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A149" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G149" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G149" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H149" s="4" t="s">
-        <v>29</v>
+        <v>68</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A150" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G150" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G150" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H150" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.5">
+        <v>14</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A151" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G151" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G151" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="H151" s="4" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A152" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I152" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A153" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I153" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A154" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I154" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A155" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A156" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
+        <v>48</v>
+      </c>
       <c r="G156" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A157" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="G157" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A158" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I158" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A159" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
       <c r="G159" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A160" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
       <c r="G160" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A161" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I161" s="4"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A162" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A163" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A164" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I164" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A165" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I165" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A166" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A167" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A168" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
+        <v>49</v>
+      </c>
       <c r="G168" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A169" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="G169" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A170" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A171" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
       <c r="G171" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A172" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
       <c r="G172" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A173" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A174" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A175" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A176" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A177" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A178" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A179" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A180" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A181" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A182" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A183" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A184" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E184" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A185" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E185" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I185" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A186" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I186" s="4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A187" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G187" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="E187" t="s">
+        <v>64</v>
+      </c>
       <c r="H187" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I187" s="4"/>
-      <c r="J187" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A188" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="E188" t="s">
+        <v>65</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A189" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A190" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G190" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G190" s="4"/>
       <c r="H190" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I190" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="I190" s="4"/>
+      <c r="J190" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A191" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A192" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A193" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A194" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A195" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A196" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A197" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A198" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G198" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H198" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J198" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A199" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I199" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A200" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I200" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A201" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G201" s="4"/>
       <c r="H201" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I201" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="J201" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A202" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A203" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A204" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="I204" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A205" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G205" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G205" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="H205" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+        <v>12</v>
+      </c>
+      <c r="I205" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A206" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I206" s="4" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A207" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I207" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A208" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H208" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A209" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H209" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I208" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A209" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G209" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H209" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="I209" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A210" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A211" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="I211" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A212" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I212" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A213" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A214" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A215" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A216" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H212" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A213" s="3" t="s">
+      <c r="H216" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H213" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J213" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A214" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G214" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H214" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I214" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A215" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G215" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H215" s="4" t="s">
+      <c r="J216" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A217" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I217" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A218" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H218" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I215" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A216" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G216" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H216" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I216" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A217" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H217" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J217" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A218" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G218" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H218" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="I218" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A219" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>65</v>
@@ -4392,31 +4420,73 @@
         <v>10</v>
       </c>
       <c r="H219" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I219" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A220" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J220" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A221" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I221" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A222" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H222" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I219" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A220" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G220" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H220" s="4" t="s">
+      <c r="I222" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A223" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H223" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I220" s="4" t="s">
-        <v>31</v>
+      <c r="I223" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A220">
+  <conditionalFormatting sqref="A2:A223">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bboen\Documents\Repositories\CDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072FDF4-0407-42B6-9302-3BACA34681FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3209534D-973F-44F7-AE0B-99078D9F1574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28850" yWindow="2270" windowWidth="20200" windowHeight="20740" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
+    <workbookView xWindow="29150" yWindow="7740" windowWidth="19730" windowHeight="15280" xr2:uid="{3871FB82-2653-A147-BC79-29644B3BC0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="74">
   <si>
     <t>condition</t>
   </si>
@@ -650,11 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA6CB4-1F8C-2741-8D63-E91EE9F8BC95}">
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4420,34 +4420,35 @@
         <v>10</v>
       </c>
       <c r="H219" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I219" s="4"/>
+    </row>
+    <row r="220" spans="1:10" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="A220" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H220" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I219" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A220" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H220" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J220" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="I220" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A221" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G221" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H221" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I221" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J221" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4455,14 +4456,11 @@
       <c r="A222" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B222" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="G222" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I222" s="4" t="s">
         <v>30</v>
@@ -4473,20 +4471,52 @@
         <v>62</v>
       </c>
       <c r="B223" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I223" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A224" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G223" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H223" s="4" t="s">
+      <c r="G224" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I224" s="4"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A225" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H225" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I223" s="4" t="s">
+      <c r="I225" s="4" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A223">
+  <conditionalFormatting sqref="A2:A225">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
